--- a/build/resources/test/Udemy.xlsx
+++ b/build/resources/test/Udemy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -33,31 +33,25 @@
     <t>Test Results</t>
   </si>
   <si>
+    <t>Dinnu@247</t>
+  </si>
+  <si>
+    <t>Dinnu@250</t>
+  </si>
+  <si>
+    <t>loginTo_Application_WithValid_Credentials</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>dineshkumar.icon@gmail.com</t>
+  </si>
+  <si>
     <t>dineshkumar.icon.dk@gmail.com</t>
-  </si>
-  <si>
-    <t>Dinnu@247</t>
-  </si>
-  <si>
-    <t>Dinnu@248</t>
-  </si>
-  <si>
-    <t>Dinnu@249</t>
-  </si>
-  <si>
-    <t>Dinnu@250</t>
-  </si>
-  <si>
-    <t>loginTo_Application_WithValid_Credentials</t>
-  </si>
-  <si>
-    <t>Skipped</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -82,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,13 +84,13 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="53"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -105,17 +99,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -133,34 +117,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,7 +432,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,70 +459,70 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="23">
-        <v>12</v>
+      <c r="D2" t="s" s="27">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="24">
-        <v>11</v>
+      <c r="D3" t="s" s="26">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="25">
-        <v>11</v>
+      <c r="D4" t="s" s="28">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="26">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="29">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="C3" r:id="rId6" display="Dinnu@247"/>
-    <hyperlink ref="C4" r:id="rId7" display="Dinnu@247"/>
-    <hyperlink ref="C5" r:id="rId8" display="Dinnu@247"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3" display="Dinnu@247"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/build/resources/test/Udemy.xlsx
+++ b/build/resources/test/Udemy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="12">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -36,22 +36,25 @@
     <t>Dinnu@247</t>
   </si>
   <si>
-    <t>Dinnu@250</t>
-  </si>
-  <si>
     <t>loginTo_Application_WithValid_Credentials</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
+    <t>dineshkumar.icon.dk@gmail.com</t>
+  </si>
+  <si>
+    <t>Dinnu@248</t>
+  </si>
+  <si>
+    <t>dineshkumar.icon@gmail.com</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>dineshkumar.icon@gmail.com</t>
-  </si>
-  <si>
-    <t>dineshkumar.icon.dk@gmail.com</t>
+    <t>Skip</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,18 +92,28 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="10"/>
+        <fgColor indexed="53"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
       </patternFill>
     </fill>
   </fills>
@@ -117,36 +130,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
@@ -432,7 +573,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,21 +600,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s" s="27">
-        <v>8</v>
+      <c r="D2" t="s" s="155">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -481,48 +622,48 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="26">
-        <v>7</v>
+      <c r="D3" t="s" s="154">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="28">
-        <v>8</v>
+      <c r="D4" t="s" s="156">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="29">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="157">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3" display="Dinnu@247"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8" display="Dinnu@247"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
